--- a/examples/excel_examples/course-credential.xlsx
+++ b/examples/excel_examples/course-credential.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -306,22 +306,23 @@
   </si>
   <si>
     <t xml:space="preserve">Haskell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -344,7 +345,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -404,37 +405,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -452,7 +441,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -460,46 +449,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -507,58 +496,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -576,48 +532,12 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -632,7 +552,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -641,75 +561,75 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="19.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -726,20 +646,26 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>45353</v>
+      <c r="E2" s="4" t="n">
+        <v>44622</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="1" t="n">
         <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/examples/excel_examples/course-credential.xlsx
+++ b/examples/excel_examples/course-credential.xlsx
@@ -299,7 +299,7 @@
     <t xml:space="preserve">user1@example.org</t>
   </si>
   <si>
-    <t xml:space="preserve">dni</t>
+    <t xml:space="preserve">18181818A</t>
   </si>
   <si>
     <t xml:space="preserve">online</t>
@@ -552,7 +552,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
